--- a/RQ3/Satisfaction_Number_Statistics.xlsx
+++ b/RQ3/Satisfaction_Number_Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935F6AA-46DC-4AB1-AFB8-29FCE628CBEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3E22B-1350-4DE0-ABAB-793591860CB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>16</v>
       </c>
       <c r="D2" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>7</v>
